--- a/biology/Zoologie/Bestiaire_d'Aberdeen/Bestiaire_d'Aberdeen.xlsx
+++ b/biology/Zoologie/Bestiaire_d'Aberdeen/Bestiaire_d'Aberdeen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bestiaire_d%27Aberdeen</t>
+          <t>Bestiaire_d'Aberdeen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bestiaire d'Aberdeen (Université d'Aberdeen MS 24) est un bestiaire du XIIe siècle qui a été répertorié pour la première fois en 1542 dans l'inventaire de la Old Royal Library du palais de Westminster[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bestiaire d'Aberdeen (Université d'Aberdeen MS 24) est un bestiaire du XIIe siècle qui a été répertorié pour la première fois en 1542 dans l'inventaire de la Old Royal Library du palais de Westminster. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bestiaire_d%27Aberdeen</t>
+          <t>Bestiaire_d'Aberdeen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les informations sur son origine et son commanditaire sont indirectes. Le manuscrit a été rédigé et enluminé aux alentours de 1200[2] et a appartenu à un commanditaire ecclésiastique du nord ou sud de la province. Le Bestiaire d'Aberdeen est lié à tous les bestiaires du Moyen Âge et plus spécialement au Bestiaire d'Ashmole. Certains soutiennent aussi[1] que le Bestiaire d'Aberdeen serait le plus ancien des deux.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les informations sur son origine et son commanditaire sont indirectes. Le manuscrit a été rédigé et enluminé aux alentours de 1200 et a appartenu à un commanditaire ecclésiastique du nord ou sud de la province. Le Bestiaire d'Aberdeen est lié à tous les bestiaires du Moyen Âge et plus spécialement au Bestiaire d'Ashmole. Certains soutiennent aussi que le Bestiaire d'Aberdeen serait le plus ancien des deux.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bestiaire_d%27Aberdeen</t>
+          <t>Bestiaire_d'Aberdeen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Structure du bestiaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les folios 1 à 5 représentent la création du monde.
 Les folios 7 à 18 recto détaillent les bêtes sauvages (bestiae).
